--- a/MainTop/28.10.2024/спрос_28-10-2024 max_месяц с 28-9-2024 по 28-10-2024_sorted.xlsx
+++ b/MainTop/28.10.2024/спрос_28-10-2024 max_месяц с 28-9-2024 по 28-10-2024_sorted.xlsx
@@ -446,13 +446,14 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +709,7 @@
         <v>508</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>13</v>
@@ -740,7 +741,7 @@
         <v>508</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>13</v>
